--- a/output/1Y_P94_KFSDIV.xlsx
+++ b/output/1Y_P94_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.1873</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.4058</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="F3" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="H3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0214</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.2688</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E4" s="1">
-        <v>1942.6169</v>
+        <v>1938.7288</v>
       </c>
       <c r="F4" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="H4" s="1">
-        <v>19948.3442</v>
+        <v>19868.6747</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19948.3442</v>
+        <v>19868.6747</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2954</v>
+        <v>10.316</v>
       </c>
       <c r="M4" s="1">
         <v>0.1</v>
       </c>
       <c r="N4" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9911.654699999999</v>
+        <v>-9911.8313</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0132</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.4938</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E5" s="1">
-        <v>2916.4405</v>
+        <v>2910.6028</v>
       </c>
       <c r="F5" s="1">
-        <v>953.8791</v>
+        <v>951.9721</v>
       </c>
       <c r="H5" s="1">
-        <v>30604.5433</v>
+        <v>30482.161</v>
       </c>
       <c r="I5" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="J5" s="1">
-        <v>30692.8886</v>
+        <v>30570.3297</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2865</v>
+        <v>10.3071</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10009.8161</v>
+        <v>-10009.7965</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.5481</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E6" s="1">
-        <v>3870.3196</v>
+        <v>3862.5749</v>
       </c>
       <c r="F6" s="1">
-        <v>948.9686</v>
+        <v>947.0723</v>
       </c>
       <c r="H6" s="1">
-        <v>40824.5178</v>
+        <v>40661.3263</v>
       </c>
       <c r="I6" s="1">
-        <v>78.5291</v>
+        <v>78.37220000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40903.047</v>
+        <v>40739.6985</v>
       </c>
       <c r="K6" s="1">
-        <v>40009.8161</v>
+        <v>40009.7965</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3376</v>
+        <v>10.3583</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10009.8161</v>
+        <v>-10009.7965</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.3262</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E7" s="1">
-        <v>4819.2882</v>
+        <v>4809.6472</v>
       </c>
       <c r="F7" s="1">
-        <v>969.3611</v>
+        <v>967.4199</v>
       </c>
       <c r="H7" s="1">
-        <v>49764.9339</v>
+        <v>49565.8195</v>
       </c>
       <c r="I7" s="1">
-        <v>68.71299999999999</v>
+        <v>68.5757</v>
       </c>
       <c r="J7" s="1">
-        <v>49833.6469</v>
+        <v>49634.3952</v>
       </c>
       <c r="K7" s="1">
-        <v>50019.6323</v>
+        <v>50019.5931</v>
       </c>
       <c r="L7" s="1">
-        <v>10.379</v>
+        <v>10.3998</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.8219</v>
+        <v>869.0794</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9138.994199999999</v>
+        <v>-9140.717199999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.021</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.462</v>
       </c>
       <c r="C8" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D8" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E8" s="1">
-        <v>5788.6493</v>
+        <v>5777.0671</v>
       </c>
       <c r="F8" s="1">
-        <v>970.6512</v>
+        <v>968.6772</v>
       </c>
       <c r="H8" s="1">
-        <v>60560.8486</v>
+        <v>60318.9351</v>
       </c>
       <c r="I8" s="1">
-        <v>929.7188</v>
+        <v>927.8585</v>
       </c>
       <c r="J8" s="1">
-        <v>61490.5674</v>
+        <v>61246.7936</v>
       </c>
       <c r="K8" s="1">
-        <v>60029.4484</v>
+        <v>60029.3896</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3702</v>
+        <v>10.391</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10154.9531</v>
+        <v>-10154.6431</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0277</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.5775</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E9" s="1">
-        <v>6759.3005</v>
+        <v>6745.7443</v>
       </c>
       <c r="F9" s="1">
-        <v>960.0522999999999</v>
+        <v>958.1027</v>
       </c>
       <c r="H9" s="1">
-        <v>71496.501</v>
+        <v>71210.1004</v>
       </c>
       <c r="I9" s="1">
-        <v>774.7655999999999</v>
+        <v>773.2154</v>
       </c>
       <c r="J9" s="1">
-        <v>72271.2666</v>
+        <v>71983.3158</v>
       </c>
       <c r="K9" s="1">
-        <v>70184.4016</v>
+        <v>70184.0327</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3834</v>
+        <v>10.4042</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10154.9531</v>
+        <v>-10154.6431</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0109</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.7066</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E10" s="1">
-        <v>7719.3528</v>
+        <v>7703.847</v>
       </c>
       <c r="F10" s="1">
-        <v>948.476</v>
+        <v>946.5463</v>
       </c>
       <c r="H10" s="1">
-        <v>82648.02250000001</v>
+        <v>82317.1458</v>
       </c>
       <c r="I10" s="1">
-        <v>619.8125</v>
+        <v>618.5723</v>
       </c>
       <c r="J10" s="1">
-        <v>83267.8351</v>
+        <v>82935.7181</v>
       </c>
       <c r="K10" s="1">
-        <v>80339.3547</v>
+        <v>80338.6758</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4075</v>
+        <v>10.4284</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
       </c>
       <c r="N10" s="1">
-        <v>1216.6741</v>
+        <v>1214.234</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8938.279</v>
+        <v>-8940.409100000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0121</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.1511</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E11" s="1">
-        <v>8667.828799999999</v>
+        <v>8650.3933</v>
       </c>
       <c r="F11" s="1">
-        <v>947.0376</v>
+        <v>945.0385</v>
       </c>
       <c r="H11" s="1">
-        <v>96655.8256</v>
+        <v>96268.49649999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1681.5335</v>
+        <v>1678.1632</v>
       </c>
       <c r="J11" s="1">
-        <v>98337.359</v>
+        <v>97946.6597</v>
       </c>
       <c r="K11" s="1">
-        <v>90494.3078</v>
+        <v>90493.31879999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4403</v>
+        <v>10.4612</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10560.5112</v>
+        <v>-10559.3877</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0544</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.5294</v>
       </c>
       <c r="C12" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D12" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E12" s="1">
-        <v>9614.866400000001</v>
+        <v>9595.4318</v>
       </c>
       <c r="F12" s="1">
-        <v>915.9557</v>
+        <v>914.0349</v>
       </c>
       <c r="H12" s="1">
-        <v>110853.6407</v>
+        <v>110407.9165</v>
       </c>
       <c r="I12" s="1">
-        <v>1121.0223</v>
+        <v>1118.7755</v>
       </c>
       <c r="J12" s="1">
-        <v>111974.663</v>
+        <v>111526.692</v>
       </c>
       <c r="K12" s="1">
-        <v>101054.819</v>
+        <v>101052.7066</v>
       </c>
       <c r="L12" s="1">
-        <v>10.5103</v>
+        <v>10.5313</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10560.5112</v>
+        <v>-10559.3877</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0336</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E13" s="1">
-        <v>10530.8221</v>
+        <v>10509.4666</v>
       </c>
       <c r="F13" s="1">
-        <v>967.6469</v>
+        <v>965.6063</v>
       </c>
       <c r="H13" s="1">
-        <v>114929.18</v>
+        <v>114467.0086</v>
       </c>
       <c r="I13" s="1">
-        <v>560.5112</v>
+        <v>559.3877</v>
       </c>
       <c r="J13" s="1">
-        <v>115489.6912</v>
+        <v>115026.3963</v>
       </c>
       <c r="K13" s="1">
-        <v>111615.3301</v>
+        <v>111612.0943</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5989</v>
+        <v>10.6201</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4326.6899</v>
+        <v>4317.9443</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6233.8213</v>
+        <v>-6241.4434</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0532</v>
+        <v>-0.0535</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.2587</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E14" s="1">
-        <v>11498.469</v>
+        <v>11475.0729</v>
       </c>
       <c r="F14" s="1">
-        <v>-11498.469</v>
+        <v>-11475.0729</v>
       </c>
       <c r="H14" s="1">
-        <v>129456.663</v>
+        <v>128936.2144</v>
       </c>
       <c r="I14" s="1">
-        <v>4326.6899</v>
+        <v>4317.9443</v>
       </c>
       <c r="J14" s="1">
-        <v>133783.3528</v>
+        <v>133254.1587</v>
       </c>
       <c r="K14" s="1">
-        <v>122175.8413</v>
+        <v>122171.4821</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6254</v>
+        <v>10.6467</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129456.663</v>
+        <v>128936.2144</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.0658</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.1873</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.4058</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="F3" s="1">
-        <v>940.3907</v>
+        <v>946.202</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9785.5173</v>
+        <v>-9865.7642</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0214</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.2688</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E4" s="1">
-        <v>1922.005</v>
+        <v>1925.8546</v>
       </c>
       <c r="F4" s="1">
-        <v>994.7105</v>
+        <v>984.92</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19736.6853</v>
+        <v>19736.7357</v>
       </c>
       <c r="I4" s="1">
-        <v>214.4827</v>
+        <v>134.2358</v>
       </c>
       <c r="J4" s="1">
-        <v>19951.168</v>
+        <v>19870.9715</v>
       </c>
       <c r="K4" s="1">
-        <v>19785.5173</v>
+        <v>19865.7642</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2942</v>
+        <v>10.3153</v>
       </c>
       <c r="M4" s="1">
         <v>0.1</v>
       </c>
       <c r="N4" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10126.1374</v>
+        <v>-10046.0671</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.013</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.4938</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E5" s="1">
-        <v>2916.7155</v>
+        <v>2910.7746</v>
       </c>
       <c r="F5" s="1">
-        <v>895.0590999999999</v>
+        <v>908.6433</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30607.429</v>
+        <v>30483.9601</v>
       </c>
       <c r="I5" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="J5" s="1">
-        <v>30695.7743</v>
+        <v>30572.1289</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2855</v>
+        <v>10.3065</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9392.571</v>
+        <v>-9554.2029</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.5481</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E6" s="1">
-        <v>3811.7746</v>
+        <v>3819.4179</v>
       </c>
       <c r="F6" s="1">
-        <v>928.4156</v>
+        <v>930.2732999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40206.9794</v>
+        <v>40207.0125</v>
       </c>
       <c r="I6" s="1">
-        <v>695.7743</v>
+        <v>533.9659</v>
       </c>
       <c r="J6" s="1">
-        <v>40902.7537</v>
+        <v>40740.9783</v>
       </c>
       <c r="K6" s="1">
-        <v>39392.571</v>
+        <v>39554.2029</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3344</v>
+        <v>10.3561</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9793.0206</v>
+        <v>-9832.2451</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0051</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.3262</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E7" s="1">
-        <v>4740.1902</v>
+        <v>4749.6913</v>
       </c>
       <c r="F7" s="1">
-        <v>1055.8341</v>
+        <v>1034.2925</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48948.1518</v>
+        <v>48947.9434</v>
       </c>
       <c r="I7" s="1">
-        <v>902.7537</v>
+        <v>701.7208000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>49850.9055</v>
+        <v>49649.6642</v>
       </c>
       <c r="K7" s="1">
-        <v>49185.5916</v>
+        <v>49386.448</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3763</v>
+        <v>10.3978</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>857.6493</v>
+        <v>859.369</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10045.1044</v>
+        <v>-9842.351699999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0207</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.462</v>
       </c>
       <c r="C8" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D8" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E8" s="1">
-        <v>5796.0242</v>
+        <v>5783.9837</v>
       </c>
       <c r="F8" s="1">
-        <v>894.857</v>
+        <v>920.2907</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60638.0056</v>
+        <v>60391.1526</v>
       </c>
       <c r="I8" s="1">
-        <v>857.6493</v>
+        <v>859.369</v>
       </c>
       <c r="J8" s="1">
-        <v>61495.6549</v>
+        <v>61250.5217</v>
       </c>
       <c r="K8" s="1">
-        <v>60088.3453</v>
+        <v>60088.1687</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3672</v>
+        <v>10.3887</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9361.9944</v>
+        <v>-9647.407499999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0275</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.5775</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E9" s="1">
-        <v>6690.8813</v>
+        <v>6704.2745</v>
       </c>
       <c r="F9" s="1">
-        <v>872.3425</v>
+        <v>874.1384</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70772.7968</v>
+        <v>70772.3324</v>
       </c>
       <c r="I9" s="1">
-        <v>1495.6549</v>
+        <v>1211.9615</v>
       </c>
       <c r="J9" s="1">
-        <v>72268.4516</v>
+        <v>71984.2939</v>
       </c>
       <c r="K9" s="1">
-        <v>69450.3397</v>
+        <v>69735.5763</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3798</v>
+        <v>10.4017</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9227.2032</v>
+        <v>-9264.731100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0108</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.7066</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E10" s="1">
-        <v>7563.2238</v>
+        <v>7578.4129</v>
       </c>
       <c r="F10" s="1">
-        <v>842.8061</v>
+        <v>844.4524</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80976.41220000001</v>
+        <v>80976.85739999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2268.4516</v>
+        <v>1947.2304</v>
       </c>
       <c r="J10" s="1">
-        <v>83244.86380000001</v>
+        <v>82924.0879</v>
       </c>
       <c r="K10" s="1">
-        <v>78677.5429</v>
+        <v>79000.3073</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4026</v>
+        <v>10.4244</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
       </c>
       <c r="N10" s="1">
-        <v>1204.3586</v>
+        <v>1206.7694</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7819.2292</v>
+        <v>-7852.6002</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0119</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.1511</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E11" s="1">
-        <v>8406.0299</v>
+        <v>8422.865299999999</v>
       </c>
       <c r="F11" s="1">
-        <v>561.6952</v>
+        <v>562.8295000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93736.4803</v>
+        <v>93736.383</v>
       </c>
       <c r="I11" s="1">
-        <v>4449.2225</v>
+        <v>4094.6303</v>
       </c>
       <c r="J11" s="1">
-        <v>98185.7028</v>
+        <v>97831.01330000001</v>
       </c>
       <c r="K11" s="1">
-        <v>87701.13069999999</v>
+        <v>88059.67690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4331</v>
+        <v>10.4548</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6263.5197</v>
+        <v>-6288.7754</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.053</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.5294</v>
       </c>
       <c r="C12" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D12" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E12" s="1">
-        <v>8967.725200000001</v>
+        <v>8985.694799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>573.1009</v>
+        <v>574.2854</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103392.4904</v>
+        <v>103392.0998</v>
       </c>
       <c r="I12" s="1">
-        <v>8185.7028</v>
+        <v>7805.8548</v>
       </c>
       <c r="J12" s="1">
-        <v>111578.1932</v>
+        <v>111197.9546</v>
       </c>
       <c r="K12" s="1">
-        <v>93964.6504</v>
+        <v>94348.4523</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4781</v>
+        <v>10.4999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6607.5669</v>
+        <v>-6634.4322</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0314</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E13" s="1">
-        <v>9540.8261</v>
+        <v>9559.9802</v>
       </c>
       <c r="F13" s="1">
-        <v>1454.6291</v>
+        <v>1457.4825</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104124.7593</v>
+        <v>104125.3922</v>
       </c>
       <c r="I13" s="1">
-        <v>11578.1359</v>
+        <v>11171.4226</v>
       </c>
       <c r="J13" s="1">
-        <v>115702.8952</v>
+        <v>115296.8148</v>
       </c>
       <c r="K13" s="1">
-        <v>100572.2173</v>
+        <v>100982.8846</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5412</v>
+        <v>10.5631</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4035.4763</v>
+        <v>4043.5626</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11839.7644</v>
+        <v>-11894.7372</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0483</v>
+        <v>-0.0487</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.2587</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E14" s="1">
-        <v>10995.4552</v>
+        <v>11017.4627</v>
       </c>
       <c r="F14" s="1">
-        <v>-10995.4552</v>
+        <v>-11017.4627</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123793.432</v>
+        <v>123794.4141</v>
       </c>
       <c r="I14" s="1">
-        <v>9738.371499999999</v>
+        <v>9276.6855</v>
       </c>
       <c r="J14" s="1">
-        <v>133531.8036</v>
+        <v>133071.0996</v>
       </c>
       <c r="K14" s="1">
-        <v>116447.458</v>
+        <v>116921.1844</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5905</v>
+        <v>10.6124</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123793.432</v>
+        <v>123794.4141</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0623</v>
+        <v>0.062</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.1873</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.4058</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="F3" s="1">
-        <v>945.1957</v>
+        <v>951.0166</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9835.5173</v>
+        <v>-9915.965</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0214</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.2688</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E4" s="1">
-        <v>1926.81</v>
+        <v>1930.6692</v>
       </c>
       <c r="F4" s="1">
-        <v>989.8413</v>
+        <v>980.0411</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19786.027</v>
+        <v>19786.0775</v>
       </c>
       <c r="I4" s="1">
-        <v>164.4827</v>
+        <v>84.035</v>
       </c>
       <c r="J4" s="1">
-        <v>19950.5098</v>
+        <v>19870.1125</v>
       </c>
       <c r="K4" s="1">
-        <v>19835.5173</v>
+        <v>19915.965</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2945</v>
+        <v>10.3156</v>
       </c>
       <c r="M4" s="1">
         <v>0.1</v>
       </c>
       <c r="N4" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10076.1374</v>
+        <v>-9995.8663</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0131</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.4938</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E5" s="1">
-        <v>2916.6514</v>
+        <v>2910.7103</v>
       </c>
       <c r="F5" s="1">
-        <v>923.8069</v>
+        <v>937.4488</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30606.7563</v>
+        <v>30483.2873</v>
       </c>
       <c r="I5" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="J5" s="1">
-        <v>30695.1016</v>
+        <v>30571.456</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2858</v>
+        <v>10.3068</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9694.2449</v>
+        <v>-9857.086799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.5481</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E6" s="1">
-        <v>3840.4583</v>
+        <v>3848.1592</v>
       </c>
       <c r="F6" s="1">
-        <v>947.3714</v>
+        <v>949.2671</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40509.5381</v>
+        <v>40509.5715</v>
       </c>
       <c r="I6" s="1">
-        <v>394.1004</v>
+        <v>231.0819</v>
       </c>
       <c r="J6" s="1">
-        <v>40903.6385</v>
+        <v>40740.6534</v>
       </c>
       <c r="K6" s="1">
-        <v>39694.2449</v>
+        <v>39857.0868</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3358</v>
+        <v>10.3574</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9992.9681</v>
+        <v>-10032.9939</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0051</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.3262</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E7" s="1">
-        <v>4787.8297</v>
+        <v>4797.4263</v>
       </c>
       <c r="F7" s="1">
-        <v>1007.2565</v>
+        <v>985.6177</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49440.0869</v>
+        <v>49439.8763</v>
       </c>
       <c r="I7" s="1">
-        <v>401.1322</v>
+        <v>198.0881</v>
       </c>
       <c r="J7" s="1">
-        <v>49841.2191</v>
+        <v>49637.9644</v>
       </c>
       <c r="K7" s="1">
-        <v>49687.213</v>
+        <v>49890.0806</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3778</v>
+        <v>10.3993</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>864.1031</v>
+        <v>865.8357999999999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9537.0291</v>
+        <v>-9332.2523</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0209</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.462</v>
       </c>
       <c r="C8" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D8" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E8" s="1">
-        <v>5795.0862</v>
+        <v>5783.044</v>
       </c>
       <c r="F8" s="1">
-        <v>996.9989</v>
+        <v>1022.6368</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60628.1918</v>
+        <v>60381.3406</v>
       </c>
       <c r="I8" s="1">
-        <v>864.1031</v>
+        <v>865.8357999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>61492.2949</v>
+        <v>61247.1764</v>
       </c>
       <c r="K8" s="1">
-        <v>60088.3453</v>
+        <v>60088.1687</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3688</v>
+        <v>10.3904</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10430.6021</v>
+        <v>-10720.3017</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0276</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.5775</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E9" s="1">
-        <v>6792.0851</v>
+        <v>6805.6808</v>
       </c>
       <c r="F9" s="1">
-        <v>904.8271</v>
+        <v>906.6889</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71843.2797</v>
+        <v>71842.8083</v>
       </c>
       <c r="I9" s="1">
-        <v>433.501</v>
+        <v>145.5341</v>
       </c>
       <c r="J9" s="1">
-        <v>72276.7807</v>
+        <v>71988.34239999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70518.9474</v>
+        <v>70808.4705</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3825</v>
+        <v>10.4043</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9570.8081</v>
+        <v>-9609.723099999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.011</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.7066</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E10" s="1">
-        <v>7696.9121</v>
+        <v>7712.3697</v>
       </c>
       <c r="F10" s="1">
-        <v>879.2146</v>
+        <v>880.9331</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82407.7592</v>
+        <v>82408.2123</v>
       </c>
       <c r="I10" s="1">
-        <v>862.6929</v>
+        <v>535.8108999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>83270.45209999999</v>
+        <v>82944.0232</v>
       </c>
       <c r="K10" s="1">
-        <v>80089.7555</v>
+        <v>80418.1936</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4054</v>
+        <v>10.4272</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
       </c>
       <c r="N10" s="1">
-        <v>1222.5753</v>
+        <v>1225.0225</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8190.8238</v>
+        <v>-8225.7155</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0121</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.1511</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E11" s="1">
-        <v>8576.126700000001</v>
+        <v>8593.3027</v>
       </c>
       <c r="F11" s="1">
-        <v>596.0863000000001</v>
+        <v>597.2896</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95633.2466</v>
+        <v>95633.1474</v>
       </c>
       <c r="I11" s="1">
-        <v>2671.8691</v>
+        <v>2310.0955</v>
       </c>
       <c r="J11" s="1">
-        <v>98305.11569999999</v>
+        <v>97943.24280000001</v>
       </c>
       <c r="K11" s="1">
-        <v>89503.15459999999</v>
+        <v>89868.9316</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4363</v>
+        <v>10.458</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6647.0175</v>
+        <v>-6673.8155</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.054</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.5294</v>
       </c>
       <c r="C12" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D12" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E12" s="1">
-        <v>9172.213</v>
+        <v>9190.5923</v>
       </c>
       <c r="F12" s="1">
-        <v>610.7476</v>
+        <v>612.0084000000001</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>105750.1122</v>
+        <v>105749.7127</v>
       </c>
       <c r="I12" s="1">
-        <v>6024.8516</v>
+        <v>5636.2799</v>
       </c>
       <c r="J12" s="1">
-        <v>111774.9639</v>
+        <v>111385.9926</v>
       </c>
       <c r="K12" s="1">
-        <v>96150.1721</v>
+        <v>96542.7472</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4828</v>
+        <v>10.5045</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7041.6142</v>
+        <v>-7070.2275</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E13" s="1">
-        <v>9782.9606</v>
+        <v>9802.6008</v>
       </c>
       <c r="F13" s="1">
-        <v>1519.9664</v>
+        <v>1522.9491</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>106767.3183</v>
+        <v>106767.9672</v>
       </c>
       <c r="I13" s="1">
-        <v>8983.2374</v>
+        <v>8566.0524</v>
       </c>
       <c r="J13" s="1">
-        <v>115750.5557</v>
+        <v>115334.0196</v>
       </c>
       <c r="K13" s="1">
-        <v>103191.7863</v>
+        <v>103612.9747</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5481</v>
+        <v>10.5699</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4127.4958</v>
+        <v>4135.7666</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12460.8096</v>
+        <v>-12518.4428</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0495</v>
+        <v>-0.0499</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.2587</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E14" s="1">
-        <v>11302.927</v>
+        <v>11325.5498</v>
       </c>
       <c r="F14" s="1">
-        <v>-11302.927</v>
+        <v>-11325.5498</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127255.1335</v>
+        <v>127256.1431</v>
       </c>
       <c r="I14" s="1">
-        <v>6522.4278</v>
+        <v>6047.6096</v>
       </c>
       <c r="J14" s="1">
-        <v>133777.5614</v>
+        <v>133303.7527</v>
       </c>
       <c r="K14" s="1">
-        <v>119780.0917</v>
+        <v>120267.1841</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5973</v>
+        <v>10.6191</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127255.1335</v>
+        <v>127256.1431</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0638</v>
+        <v>0.0636</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.1873</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.4058</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="F3" s="1">
-        <v>950.0007000000001</v>
+        <v>955.8313000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9885.5173</v>
+        <v>-9966.165800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0214</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.2688</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E4" s="1">
-        <v>1931.6151</v>
+        <v>1935.4839</v>
       </c>
       <c r="F4" s="1">
-        <v>984.9722</v>
+        <v>975.1622</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19835.3687</v>
+        <v>19835.4194</v>
       </c>
       <c r="I4" s="1">
-        <v>114.4827</v>
+        <v>33.8342</v>
       </c>
       <c r="J4" s="1">
-        <v>19949.8515</v>
+        <v>19869.2536</v>
       </c>
       <c r="K4" s="1">
-        <v>19885.5173</v>
+        <v>19966.1658</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2948</v>
+        <v>10.3159</v>
       </c>
       <c r="M4" s="1">
         <v>0.1</v>
       </c>
       <c r="N4" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10026.1374</v>
+        <v>-9945.665499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0131</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.4938</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E5" s="1">
-        <v>2916.5873</v>
+        <v>2910.6461</v>
       </c>
       <c r="F5" s="1">
-        <v>952.746</v>
+        <v>959.4256</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30606.0836</v>
+        <v>30482.6145</v>
       </c>
       <c r="I5" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="J5" s="1">
-        <v>30694.4289</v>
+        <v>30570.7832</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.286</v>
+        <v>10.307</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9997.9264</v>
+        <v>-10088.1687</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.5481</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E6" s="1">
-        <v>3869.3333</v>
+        <v>3870.0717</v>
       </c>
       <c r="F6" s="1">
-        <v>956.6101</v>
+        <v>946.1454</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40814.1148</v>
+        <v>40740.2452</v>
       </c>
       <c r="I6" s="1">
-        <v>90.41889999999999</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40904.5337</v>
+        <v>40740.2452</v>
       </c>
       <c r="K6" s="1">
-        <v>39997.9264</v>
+        <v>40088.1687</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3372</v>
+        <v>10.3585</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10090.4189</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.3262</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E7" s="1">
-        <v>4825.9434</v>
+        <v>4816.2171</v>
       </c>
       <c r="F7" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49833.6569</v>
+        <v>49633.5258</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49833.6569</v>
+        <v>49633.5258</v>
       </c>
       <c r="K7" s="1">
-        <v>50088.3453</v>
+        <v>50088.1687</v>
       </c>
       <c r="L7" s="1">
-        <v>10.379</v>
+        <v>10.3999</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.6</v>
+        <v>870.7661000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9129.4</v>
+        <v>-9129.233899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.021</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.462</v>
       </c>
       <c r="C8" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D8" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E8" s="1">
-        <v>5794.3539</v>
+        <v>5782.6902</v>
       </c>
       <c r="F8" s="1">
-        <v>1039.0556</v>
+        <v>1036.99</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60620.5301</v>
+        <v>60377.6466</v>
       </c>
       <c r="I8" s="1">
-        <v>870.6</v>
+        <v>870.7661000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>61491.1301</v>
+        <v>61248.4127</v>
       </c>
       <c r="K8" s="1">
-        <v>60088.3453</v>
+        <v>60088.1687</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3702</v>
+        <v>10.391</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10870.6</v>
+        <v>-10870.7661</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0277</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.5775</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E9" s="1">
-        <v>6833.4095</v>
+        <v>6819.6802</v>
       </c>
       <c r="F9" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72280.38890000001</v>
+        <v>71990.59</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72280.38890000001</v>
+        <v>71990.59</v>
       </c>
       <c r="K9" s="1">
-        <v>70958.94530000001</v>
+        <v>70958.93489999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3841</v>
+        <v>10.405</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.011</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.7066</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E10" s="1">
-        <v>7778.8125</v>
+        <v>7763.1921</v>
       </c>
       <c r="F10" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83284.6336</v>
+        <v>82951.26059999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>83284.6336</v>
+        <v>82951.26059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80958.94530000001</v>
+        <v>80958.93489999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4076</v>
+        <v>10.4286</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
       </c>
       <c r="N10" s="1">
-        <v>1230.0137</v>
+        <v>1227.5424</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8769.9863</v>
+        <v>-8772.4576</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0122</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.1511</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E11" s="1">
-        <v>8712.8158</v>
+        <v>8695.3236</v>
       </c>
       <c r="F11" s="1">
-        <v>669.4089</v>
+        <v>705.7012</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97157.48020000001</v>
+        <v>96768.5177</v>
       </c>
       <c r="I11" s="1">
-        <v>1230.0137</v>
+        <v>1227.5424</v>
       </c>
       <c r="J11" s="1">
-        <v>98387.4939</v>
+        <v>97996.0601</v>
       </c>
       <c r="K11" s="1">
-        <v>90958.94530000001</v>
+        <v>90958.93489999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4397</v>
+        <v>10.4607</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7464.6452</v>
+        <v>-7885.1526</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0547</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.5294</v>
       </c>
       <c r="C12" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D12" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E12" s="1">
-        <v>9382.224700000001</v>
+        <v>9401.0249</v>
       </c>
       <c r="F12" s="1">
-        <v>650.2442</v>
+        <v>651.5852</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108171.421</v>
+        <v>108171.0123</v>
       </c>
       <c r="I12" s="1">
-        <v>3765.3685</v>
+        <v>3342.3899</v>
       </c>
       <c r="J12" s="1">
-        <v>111936.7895</v>
+        <v>111513.4022</v>
       </c>
       <c r="K12" s="1">
-        <v>98423.59050000001</v>
+        <v>98844.0874</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4904</v>
+        <v>10.5142</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7496.9907</v>
+        <v>-7527.4376</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0327</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E13" s="1">
-        <v>10032.4689</v>
+        <v>10052.61</v>
       </c>
       <c r="F13" s="1">
-        <v>1490.6518</v>
+        <v>1446.2029</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109490.3523</v>
+        <v>109491.0178</v>
       </c>
       <c r="I13" s="1">
-        <v>6268.3778</v>
+        <v>5814.9523</v>
       </c>
       <c r="J13" s="1">
-        <v>115758.7302</v>
+        <v>115305.9701</v>
       </c>
       <c r="K13" s="1">
-        <v>105920.5812</v>
+        <v>106371.525</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5578</v>
+        <v>10.5815</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4222.0011</v>
+        <v>4230.4612</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12046.3767</v>
+        <v>-11584.4911</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0507</v>
+        <v>-0.0511</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.2587</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E14" s="1">
-        <v>11523.1207</v>
+        <v>11498.813</v>
       </c>
       <c r="F14" s="1">
-        <v>-11523.1207</v>
+        <v>-11498.813</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129734.2068</v>
+        <v>129202.9622</v>
       </c>
       <c r="I14" s="1">
-        <v>4222.0011</v>
+        <v>4230.4612</v>
       </c>
       <c r="J14" s="1">
-        <v>133956.2079</v>
+        <v>133433.4234</v>
       </c>
       <c r="K14" s="1">
-        <v>122188.959</v>
+        <v>122186.4773</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6038</v>
+        <v>10.626</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129734.2068</v>
+        <v>129202.9622</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.06519999999999999</v>
+        <v>0.0649</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.1873</v>
       </c>
       <c r="C2" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D2" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.4058</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="F3" s="1">
-        <v>954.8057</v>
+        <v>960.6459</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10214.4827</v>
+        <v>10173.6924</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9935.5173</v>
+        <v>-10016.3665</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0214</v>
+        <v>0.0174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.2688</v>
       </c>
       <c r="C4" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D4" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E4" s="1">
-        <v>1936.4201</v>
+        <v>1940.2985</v>
       </c>
       <c r="F4" s="1">
-        <v>980.1031</v>
+        <v>970.2833000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19884.7104</v>
+        <v>19884.7612</v>
       </c>
       <c r="I4" s="1">
-        <v>64.48269999999999</v>
+        <v>-16.3665</v>
       </c>
       <c r="J4" s="1">
-        <v>19949.1932</v>
+        <v>19868.3947</v>
       </c>
       <c r="K4" s="1">
-        <v>19935.5173</v>
+        <v>20016.3665</v>
       </c>
       <c r="L4" s="1">
-        <v>10.295</v>
+        <v>10.3161</v>
       </c>
       <c r="M4" s="1">
         <v>0.1</v>
       </c>
       <c r="N4" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9976.1374</v>
+        <v>-9895.4647</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0131</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.4938</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D5" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E5" s="1">
-        <v>2916.5232</v>
+        <v>2910.5819</v>
       </c>
       <c r="F5" s="1">
-        <v>961.3625</v>
+        <v>959.4256</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30605.4109</v>
+        <v>30481.9416</v>
       </c>
       <c r="I5" s="1">
-        <v>88.34529999999999</v>
+        <v>88.1687</v>
       </c>
       <c r="J5" s="1">
-        <v>30693.7562</v>
+        <v>30570.1104</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2862</v>
+        <v>10.3072</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10088.3453</v>
+        <v>-10088.1687</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.5481</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E6" s="1">
-        <v>3877.8856</v>
+        <v>3870.0075</v>
       </c>
       <c r="F6" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40904.3254</v>
+        <v>40739.5689</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40904.3254</v>
+        <v>40739.5689</v>
       </c>
       <c r="K6" s="1">
-        <v>40088.3453</v>
+        <v>40088.1687</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3377</v>
+        <v>10.3587</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0052</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.3262</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E7" s="1">
-        <v>4825.9237</v>
+        <v>4816.1529</v>
       </c>
       <c r="F7" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49833.4529</v>
+        <v>49632.8637</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49833.4529</v>
+        <v>49632.8637</v>
       </c>
       <c r="K7" s="1">
-        <v>50088.3453</v>
+        <v>50088.1687</v>
       </c>
       <c r="L7" s="1">
-        <v>10.379</v>
+        <v>10.4</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>872.5243</v>
+        <v>870.7517</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9127.475700000001</v>
+        <v>-9129.248299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.021</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.462</v>
       </c>
       <c r="C8" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D8" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E8" s="1">
-        <v>5794.3341</v>
+        <v>5782.6259</v>
       </c>
       <c r="F8" s="1">
-        <v>1039.2396</v>
+        <v>1036.9886</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60620.3235</v>
+        <v>60376.9758</v>
       </c>
       <c r="I8" s="1">
-        <v>872.5243</v>
+        <v>870.7517</v>
       </c>
       <c r="J8" s="1">
-        <v>61492.8478</v>
+        <v>61247.7275</v>
       </c>
       <c r="K8" s="1">
-        <v>60088.3453</v>
+        <v>60088.1687</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3702</v>
+        <v>10.3912</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10872.5243</v>
+        <v>-10870.7517</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0277</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.5775</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E9" s="1">
-        <v>6833.5737</v>
+        <v>6819.6146</v>
       </c>
       <c r="F9" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72282.12549999999</v>
+        <v>71989.8973</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72282.12549999999</v>
+        <v>71989.8973</v>
       </c>
       <c r="K9" s="1">
-        <v>70960.86960000001</v>
+        <v>70958.9204</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3842</v>
+        <v>10.4051</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.011</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.7066</v>
       </c>
       <c r="C10" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D10" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E10" s="1">
-        <v>7778.9767</v>
+        <v>7763.1265</v>
       </c>
       <c r="F10" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83286.39139999999</v>
+        <v>82950.5594</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>83286.39139999999</v>
+        <v>82950.5594</v>
       </c>
       <c r="K10" s="1">
-        <v>80960.86960000001</v>
+        <v>80958.9204</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4077</v>
+        <v>10.4286</v>
       </c>
       <c r="M10" s="1">
         <v>0.2</v>
       </c>
       <c r="N10" s="1">
-        <v>1230.0433</v>
+        <v>1227.5306</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8769.956700000001</v>
+        <v>-8772.4694</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0122</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.1511</v>
       </c>
       <c r="C11" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D11" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E11" s="1">
-        <v>8712.98</v>
+        <v>8695.258</v>
       </c>
       <c r="F11" s="1">
-        <v>884.9267</v>
+        <v>921.881</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>97159.311</v>
+        <v>96767.7874</v>
       </c>
       <c r="I11" s="1">
-        <v>1230.0433</v>
+        <v>1227.5306</v>
       </c>
       <c r="J11" s="1">
-        <v>98389.35430000001</v>
+        <v>97995.318</v>
       </c>
       <c r="K11" s="1">
-        <v>90960.86960000001</v>
+        <v>90958.9204</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4397</v>
+        <v>10.4608</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9867.905699999999</v>
+        <v>-10300.6374</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0547</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.5294</v>
       </c>
       <c r="C12" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D12" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E12" s="1">
-        <v>9597.9066</v>
+        <v>9617.138999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>691.6683</v>
+        <v>693.0932</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>110658.1048</v>
+        <v>110657.6867</v>
       </c>
       <c r="I12" s="1">
-        <v>1362.1376</v>
+        <v>926.8932</v>
       </c>
       <c r="J12" s="1">
-        <v>112020.2423</v>
+        <v>111584.5799</v>
       </c>
       <c r="K12" s="1">
-        <v>100828.7752</v>
+        <v>101259.5578</v>
       </c>
       <c r="L12" s="1">
-        <v>10.5053</v>
+        <v>10.5291</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7974.5893</v>
+        <v>-8006.9592</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0335</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E13" s="1">
-        <v>10289.5749</v>
+        <v>10310.2322</v>
       </c>
       <c r="F13" s="1">
-        <v>1226.6849</v>
+        <v>1181.4672</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112296.3047</v>
+        <v>112296.9872</v>
       </c>
       <c r="I13" s="1">
-        <v>3387.5482</v>
+        <v>2919.9341</v>
       </c>
       <c r="J13" s="1">
-        <v>115683.853</v>
+        <v>115216.9213</v>
       </c>
       <c r="K13" s="1">
-        <v>108803.3646</v>
+        <v>109266.517</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5741</v>
+        <v>10.5979</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4319.058</v>
+        <v>4327.7126</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9068.490299999999</v>
+        <v>-8592.2215</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0519</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.2587</v>
       </c>
       <c r="C14" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D14" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E14" s="1">
-        <v>11516.2598</v>
+        <v>11491.6994</v>
       </c>
       <c r="F14" s="1">
-        <v>-11516.2598</v>
+        <v>-11491.6994</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129656.9626</v>
+        <v>129123.0324</v>
       </c>
       <c r="I14" s="1">
-        <v>4319.058</v>
+        <v>4327.7126</v>
       </c>
       <c r="J14" s="1">
-        <v>133976.0206</v>
+        <v>133450.745</v>
       </c>
       <c r="K14" s="1">
-        <v>122190.9128</v>
+        <v>122186.451</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6103</v>
+        <v>10.6326</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129656.9626</v>
+        <v>129123.0324</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.066</v>
+        <v>0.0658</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6254</v>
+        <v>10.6467</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5905</v>
+        <v>10.6124</v>
       </c>
       <c r="E3" s="1">
-        <v>10.5973</v>
+        <v>10.6191</v>
       </c>
       <c r="F3" s="1">
-        <v>10.6038</v>
+        <v>10.626</v>
       </c>
       <c r="G3" s="1">
-        <v>10.6103</v>
+        <v>10.6326</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1044</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1689</v>
+        <v>0.1565</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1662</v>
+        <v>0.1545</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1685</v>
+        <v>0.1567</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1703</v>
+        <v>0.158</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1705</v>
+        <v>0.1582</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0886</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1079</v>
+        <v>0.1082</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1021</v>
+        <v>0.1025</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1041</v>
+        <v>0.1046</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1059</v>
+        <v>0.1063</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1072</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9489</v>
       </c>
       <c r="C6" s="4">
-        <v>1.3762</v>
+        <v>1.259</v>
       </c>
       <c r="D6" s="4">
-        <v>1.4289</v>
+        <v>1.3085</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4238</v>
+        <v>1.3041</v>
       </c>
       <c r="F6" s="4">
-        <v>1.4153</v>
+        <v>1.295</v>
       </c>
       <c r="G6" s="4">
-        <v>1.4009</v>
+        <v>1.2809</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2216</v>
+        <v>0.2128</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2263</v>
+        <v>0.2176</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2265</v>
+        <v>0.2177</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2263</v>
+        <v>0.2173</v>
       </c>
       <c r="G7" s="3">
-        <v>0.225</v>
+        <v>0.2161</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6502.5312</v>
+        <v>6489.4264</v>
       </c>
       <c r="D8" s="1">
-        <v>6185.8295</v>
+        <v>6197.8698</v>
       </c>
       <c r="E8" s="1">
-        <v>6302.5196</v>
+        <v>6314.7936</v>
       </c>
       <c r="F8" s="1">
-        <v>6410.9601</v>
+        <v>6416.9385</v>
       </c>
       <c r="G8" s="1">
-        <v>6509.9708</v>
+        <v>6514.1636</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P94_KFSDIV.xlsx
+++ b/output/1Y_P94_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7302.2458</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0939</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1442</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1146</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0944</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
